--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem4/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem4/correct_predictions.xlsx
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +527,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -557,61 +557,61 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
